--- a/src/main/java/utility/cardNumber_dummy.xlsx
+++ b/src/main/java/utility/cardNumber_dummy.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F063EE-DF76-40BE-899C-98997657138F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
   <si>
     <t>caseID</t>
   </si>
@@ -245,9 +246,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>payment failed</t>
-  </si>
-  <si>
     <t>Trigger error at recurring (repeat) transaction</t>
   </si>
   <si>
@@ -269,43 +267,52 @@
     <t>000</t>
   </si>
   <si>
-    <t>Response</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>Payment success with 3ds verify form</t>
-  </si>
-  <si>
-    <t>Payment failed with 3ds verify form</t>
-  </si>
-  <si>
-    <t>Payment failed with 3ds verify form (auth failed)</t>
-  </si>
-  <si>
-    <t>No 3ds verify form</t>
-  </si>
-  <si>
-    <t>Payment failed "We were unable to authorize your card."</t>
-  </si>
-  <si>
-    <t>Payment success (without 3ds verify form)</t>
-  </si>
-  <si>
     <t>failed</t>
   </si>
   <si>
     <t>unclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note </t>
+  </si>
+  <si>
+    <t>Card icon highlight</t>
+  </si>
+  <si>
+    <t>Validate</t>
+  </si>
+  <si>
+    <t>Card storage</t>
+  </si>
+  <si>
+    <t>Static link</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Payment success without 3ds check</t>
+  </si>
+  <si>
+    <t>Payment failed (cause by test card error)</t>
+  </si>
+  <si>
+    <t>payment failed with error message</t>
+  </si>
+  <si>
+    <t>Payment success first time without 3ds check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -377,10 +384,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -662,12 +672,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,9 +685,10 @@
     <col min="3" max="3" width="26.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,19 +702,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>"case"&amp;ROW()-1</f>
         <v>case1</v>
@@ -718,19 +732,20 @@
         <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>"case"&amp;ROW()-1</f>
         <v>case2</v>
@@ -745,48 +760,50 @@
         <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f>"case"&amp;ROW()-1</f>
+        <f t="shared" ref="A4:A14" si="0">"case"&amp;ROW()-1</f>
         <v>case3</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f t="shared" ref="A5:A10" si="0">"case"&amp;ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>case4</v>
       </c>
       <c r="B5" s="1">
@@ -796,76 +813,81 @@
         <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>case5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="str">
+      <c r="C6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>case6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>57</v>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>case7</v>
@@ -874,76 +896,113 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
+        <v>74</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>case8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I9" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>case9</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>case10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>case11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>case12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>case13</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>84</v>
+      <c r="H14" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -953,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
